--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/uv-exposure-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/uv-exposure-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/environmental-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/environmental-observation</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -2189,17 +2189,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.78515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2208,28 +2208,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.16015625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.1328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="587">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -684,9 +684,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="28574-5"/&gt;
-    &lt;display value="UV exposure"/&gt;
+    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
+    &lt;code value="uv-duration"/&gt;
+    &lt;display value="UV exposure duration"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1711,15 +1711,6 @@
   </si>
   <si>
     <t>Observation.component:duration.code</t>
-  </si>
-  <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/lifestyle-observation-cs"/&gt;
-    &lt;code value="uv-duration"/&gt;
-    &lt;display value="UV exposure duration"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:duration.value[x]</t>
@@ -11166,7 +11157,7 @@
         <v>87</v>
       </c>
       <c r="S74" t="s" s="2">
-        <v>538</v>
+        <v>212</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>87</v>
@@ -11240,7 +11231,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>450</v>
@@ -11360,7 +11351,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>450</v>
@@ -11391,7 +11382,7 @@
         <v>474</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>284</v>
@@ -11484,7 +11475,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>477</v>
@@ -11602,7 +11593,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>479</v>
@@ -11722,7 +11713,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>483</v>
@@ -11844,7 +11835,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>493</v>
@@ -11966,7 +11957,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>504</v>
@@ -12086,7 +12077,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>512</v>
@@ -12206,7 +12197,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>521</v>
@@ -12254,7 +12245,7 @@
         <v>87</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>87</v>
@@ -12328,7 +12319,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>454</v>
@@ -12450,7 +12441,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>458</v>
@@ -12572,7 +12563,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>459</v>
@@ -12694,13 +12685,13 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>87</v>
@@ -12818,7 +12809,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>442</v>
@@ -12936,7 +12927,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>443</v>
@@ -13056,7 +13047,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>444</v>
@@ -13178,7 +13169,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>445</v>
@@ -13226,7 +13217,7 @@
         <v>87</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>87</v>
@@ -13300,7 +13291,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>450</v>
@@ -13420,13 +13411,13 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>450</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>87</v>
@@ -13451,7 +13442,7 @@
         <v>251</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>284</v>
@@ -13544,7 +13535,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>454</v>
@@ -13666,7 +13657,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>458</v>
@@ -13788,7 +13779,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>459</v>
@@ -13910,13 +13901,13 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>87</v>
@@ -14034,7 +14025,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>442</v>
@@ -14152,7 +14143,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>443</v>
@@ -14272,7 +14263,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>444</v>
@@ -14394,7 +14385,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>445</v>
@@ -14442,7 +14433,7 @@
         <v>87</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>87</v>
@@ -14516,7 +14507,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>450</v>
@@ -14636,7 +14627,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>450</v>
@@ -14667,7 +14658,7 @@
         <v>474</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>284</v>
@@ -14760,7 +14751,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>477</v>
@@ -14878,7 +14869,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>479</v>
@@ -14998,7 +14989,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>483</v>
@@ -15120,7 +15111,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>493</v>
@@ -15242,7 +15233,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>504</v>
@@ -15362,7 +15353,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>512</v>
@@ -15482,7 +15473,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>521</v>
@@ -15530,7 +15521,7 @@
         <v>87</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>87</v>
@@ -15604,7 +15595,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>454</v>
@@ -15726,7 +15717,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>458</v>
@@ -15848,7 +15839,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>459</v>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4400" uniqueCount="586">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1675,9 +1675,6 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
-  </si>
-  <si>
-    <t>{index}</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -3849,7 +3846,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -3971,7 +3968,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -4215,7 +4212,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>222</v>
       </c>
@@ -4699,7 +4696,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>262</v>
       </c>
@@ -5429,7 +5426,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>314</v>
       </c>
@@ -5671,7 +5668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>332</v>
       </c>
@@ -5913,7 +5910,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
         <v>350</v>
       </c>
@@ -8563,7 +8560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>462</v>
       </c>
@@ -10185,46 +10182,46 @@
         <v>87</v>
       </c>
       <c r="S66" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AF66" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="T66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="U66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="V66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="W66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Y66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="Z66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AA66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>527</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>85</v>
@@ -10248,7 +10245,7 @@
         <v>509</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>87</v>
@@ -10259,7 +10256,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>454</v>
@@ -10381,7 +10378,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>458</v>
@@ -10503,7 +10500,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>459</v>
@@ -10623,15 +10620,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>87</v>
@@ -10749,7 +10746,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>442</v>
@@ -10867,7 +10864,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>443</v>
@@ -10987,7 +10984,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>444</v>
@@ -11109,7 +11106,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>445</v>
@@ -11231,7 +11228,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>450</v>
@@ -11351,7 +11348,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>450</v>
@@ -11382,7 +11379,7 @@
         <v>474</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>284</v>
@@ -11475,7 +11472,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>477</v>
@@ -11593,7 +11590,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>479</v>
@@ -11713,7 +11710,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>483</v>
@@ -11835,7 +11832,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>493</v>
@@ -11957,7 +11954,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>504</v>
@@ -12077,7 +12074,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>512</v>
@@ -12197,7 +12194,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>521</v>
@@ -12245,7 +12242,7 @@
         <v>87</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>87</v>
@@ -12284,7 +12281,7 @@
         <v>87</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>85</v>
@@ -12308,7 +12305,7 @@
         <v>509</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>87</v>
@@ -12319,7 +12316,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>454</v>
@@ -12441,7 +12438,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>458</v>
@@ -12563,7 +12560,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>459</v>
@@ -12683,15 +12680,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>87</v>
@@ -12809,7 +12806,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>442</v>
@@ -12927,7 +12924,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>443</v>
@@ -13047,7 +13044,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>444</v>
@@ -13169,7 +13166,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>445</v>
@@ -13217,7 +13214,7 @@
         <v>87</v>
       </c>
       <c r="S91" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>87</v>
@@ -13291,7 +13288,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>450</v>
@@ -13411,13 +13408,13 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>450</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>87</v>
@@ -13442,7 +13439,7 @@
         <v>251</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>284</v>
@@ -13535,7 +13532,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>454</v>
@@ -13657,7 +13654,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>458</v>
@@ -13779,7 +13776,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>459</v>
@@ -13899,15 +13896,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>87</v>
@@ -14025,7 +14022,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>442</v>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>443</v>
@@ -14263,7 +14260,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>444</v>
@@ -14385,7 +14382,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>445</v>
@@ -14433,7 +14430,7 @@
         <v>87</v>
       </c>
       <c r="S101" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>87</v>
@@ -14507,7 +14504,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>450</v>
@@ -14627,7 +14624,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>450</v>
@@ -14658,7 +14655,7 @@
         <v>474</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>284</v>
@@ -14751,7 +14748,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>477</v>
@@ -14869,7 +14866,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>479</v>
@@ -14989,7 +14986,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>483</v>
@@ -15111,7 +15108,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B107" t="s" s="2">
         <v>493</v>
@@ -15233,7 +15230,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>504</v>
@@ -15353,7 +15350,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B109" t="s" s="2">
         <v>512</v>
@@ -15473,7 +15470,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B110" t="s" s="2">
         <v>521</v>
@@ -15521,7 +15518,7 @@
         <v>87</v>
       </c>
       <c r="S110" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="T110" t="s" s="2">
         <v>87</v>
@@ -15560,7 +15557,7 @@
         <v>87</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>85</v>
@@ -15584,7 +15581,7 @@
         <v>509</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AO110" t="s" s="2">
         <v>87</v>
@@ -15595,7 +15592,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B111" t="s" s="2">
         <v>454</v>
@@ -15717,7 +15714,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B112" t="s" s="2">
         <v>458</v>
@@ -15839,7 +15836,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>459</v>
@@ -15961,12 +15958,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP113">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-uv-exposure-observation.xlsx
+++ b/output/StructureDefinition-uv-exposure-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
